--- a/outputs/presentacion_naics_business_activity.xlsx
+++ b/outputs/presentacion_naics_business_activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/Repos/Espacios-Abiertos/recolecta-corporaciones/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D2A84-BC27-4D4F-9724-238555B56166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8A9B1-3A38-5D45-AE6D-F7D513F4BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="-28300" windowWidth="45860" windowHeight="28300" activeTab="1" xr2:uid="{91021698-E191-9142-B3F5-48E7767D8DAE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>NAICS 21</t>
   </si>
@@ -277,15 +277,19 @@
   </si>
   <si>
     <t>Sueldo anual ponderado (usando OECD)</t>
+  </si>
+  <si>
+    <t>Prima de salario en compañías multinacionales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="171" formatCode="\+0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -372,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +401,11 @@
     <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,18 +1696,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60CF910-4972-8B45-A7B4-53AEE77A580C}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="77.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="4"/>
@@ -1724,7 +1733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>3548.1989730423625</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1768,7 +1777,7 @@
         <v>125.87804878048782</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>1326.0528455284552</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>5764.1556464119558</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>14998.195121951219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>50.044715447154474</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>10562.309980972152</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>5465.628048780487</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="16">
         <f>SUM(D2:D9)</f>
         <v>984</v>
@@ -1912,6 +1921,25 @@
       <c r="F10" s="15">
         <f>SUM(F2:F9)</f>
         <v>41840.463380914269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40" x14ac:dyDescent="0.3">
+      <c r="C11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="13">
+        <f>F10*E11</f>
+        <v>8368.0926761828541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="19"/>
+      <c r="F12" s="15">
+        <f>SUM(F10:F11)</f>
+        <v>50208.556057097121</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/presentacion_naics_business_activity.xlsx
+++ b/outputs/presentacion_naics_business_activity.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/Repos/Espacios-Abiertos/recolecta-corporaciones/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8A9B1-3A38-5D45-AE6D-F7D513F4BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552A23B5-079B-2C43-B01E-3E756CD4E53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="-28300" windowWidth="45860" windowHeight="28300" activeTab="1" xr2:uid="{91021698-E191-9142-B3F5-48E7767D8DAE}"/>
+    <workbookView xWindow="3780" yWindow="-28300" windowWidth="45860" windowHeight="28300" xr2:uid="{91021698-E191-9142-B3F5-48E7767D8DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="naics_to_business_activity" sheetId="1" r:id="rId1"/>
     <sheet name="business_activity_to_total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>NAICS 21</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Matrices (segun Orbis)</t>
   </si>
   <si>
-    <t>Porciento de matrices en subcategoría</t>
-  </si>
-  <si>
     <t>Actividad empresarial de servicios administrativos, de gestión o de apoyo</t>
   </si>
   <si>
@@ -261,25 +258,34 @@
     <t>Sueldo anual promedio</t>
   </si>
   <si>
-    <t>Business activity</t>
-  </si>
-  <si>
-    <t>Actividad de negocio</t>
-  </si>
-  <si>
-    <t>Matrices (segun OECD)</t>
-  </si>
-  <si>
     <t>Sueldo anual ponderado (usando Orbis)</t>
   </si>
   <si>
     <t>Porciento de matrices en actividad</t>
   </si>
   <si>
-    <t>Sueldo anual ponderado (usando OECD)</t>
-  </si>
-  <si>
     <t>Prima de salario en compañías multinacionales</t>
+  </si>
+  <si>
+    <t>Actividad de negocio (OCDE)</t>
+  </si>
+  <si>
+    <t>Business activity (OECD)</t>
+  </si>
+  <si>
+    <t>Matrices (segun OCDE)</t>
+  </si>
+  <si>
+    <t>Sueldo anual ponderado (usando OCDE)</t>
+  </si>
+  <si>
+    <t>Actividad de negocio (OCDE) y NAICS</t>
+  </si>
+  <si>
+    <t>Business Activity (OECD) and NAICS</t>
+  </si>
+  <si>
+    <t>Porciento de matrices en NAICS</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="171" formatCode="\+0%"/>
+    <numFmt numFmtId="164" formatCode="\+0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -376,15 +382,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -393,19 +396,17 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FA79E3-861E-0F4A-AD92-035A38003928}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,32 +763,36 @@
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -808,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -826,11 +831,11 @@
       <c r="I3" s="2">
         <v>25</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="9">
         <f>I3/$I$5</f>
         <v>0.32894736842105265</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f>H3*J3</f>
         <v>25298.684210526317</v>
       </c>
@@ -841,7 +846,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -859,11 +864,11 @@
       <c r="I4" s="2">
         <v>51</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f>I4/$I$5</f>
         <v>0.67105263157894735</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <f>H4*J4</f>
         <v>14376.631578947368</v>
       </c>
@@ -877,22 +882,22 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f>SUM(I3:I4)</f>
         <v>76</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <f>I5/$I$5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="12">
         <f>SUM(K3:K4)</f>
         <v>39675.315789473687</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -913,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -931,11 +936,11 @@
       <c r="I7" s="2">
         <v>24</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <f>J8</f>
         <v>1</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <f>K8</f>
         <v>41288</v>
       </c>
@@ -949,22 +954,22 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f>I7</f>
         <v>24</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="12">
         <f>H7</f>
         <v>41288</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -985,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1003,10 +1008,10 @@
       <c r="I10" s="2">
         <v>120</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f>H10</f>
         <v>56732</v>
       </c>
@@ -1020,21 +1025,21 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f>I10</f>
         <v>120</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="12">
         <f>K10</f>
         <v>56732</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1055,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1073,11 +1078,11 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <f>I13/$I$16</f>
         <v>1.1560693641618497E-2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <f>H13*J13</f>
         <v>310.19653179190749</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1106,11 +1111,11 @@
       <c r="I14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <f t="shared" ref="J14:J16" si="0">I14/$I$16</f>
         <v>5.7803468208092484E-2</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <f t="shared" ref="K14:K15" si="1">H14*J14</f>
         <v>1587.0520231213873</v>
       </c>
@@ -1121,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1139,11 +1144,11 @@
       <c r="I15" s="2">
         <v>161</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>0.93063583815028905</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <f t="shared" si="1"/>
         <v>43844.115606936415</v>
       </c>
@@ -1157,22 +1162,22 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f>SUM(I13:I15)</f>
         <v>173</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="12">
         <f>SUM(K13:K15)</f>
         <v>45741.364161849713</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1193,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -1211,11 +1216,11 @@
       <c r="I18" s="2">
         <v>53</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="9">
         <f>I18/$I$21</f>
         <v>0.77941176470588236</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <f>J18*H18</f>
         <v>48797.411764705881</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1244,11 +1249,11 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <f t="shared" ref="J19:J21" si="2">I19/$I$21</f>
         <v>7.3529411764705885E-2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <f t="shared" ref="K19:K20" si="3">J19*H19</f>
         <v>1934.7058823529412</v>
       </c>
@@ -1259,7 +1264,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -1277,11 +1282,11 @@
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="9">
         <f t="shared" si="2"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="10">
         <f t="shared" si="3"/>
         <v>4335.8823529411766</v>
       </c>
@@ -1295,22 +1300,22 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <f>SUM(I18:I20)</f>
         <v>68</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="12">
         <f>SUM(K18:K20)</f>
         <v>55068</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1331,7 +1336,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -1349,11 +1354,11 @@
       <c r="I23" s="2">
         <v>69</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="9">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="10">
         <f>H23</f>
         <v>49244</v>
       </c>
@@ -1367,22 +1372,22 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f>I23</f>
         <v>69</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="12">
         <f>K23</f>
         <v>49244</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1403,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -1421,11 +1426,11 @@
       <c r="I26" s="2">
         <v>4</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="9">
         <f>I26/$I$31</f>
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="10">
         <f>J26*H26</f>
         <v>1223.6595744680851</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -1454,11 +1459,11 @@
       <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="9">
         <f t="shared" ref="J27:J31" si="4">I27/$I$31</f>
         <v>3.1914893617021274E-2</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="10">
         <f t="shared" ref="K27:K30" si="5">J27*H27</f>
         <v>579.19148936170211</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -1487,11 +1492,11 @@
       <c r="I28" s="2">
         <v>35</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="9">
         <f t="shared" si="4"/>
         <v>0.37234042553191488</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="10">
         <f t="shared" si="5"/>
         <v>17677.234042553191</v>
       </c>
@@ -1502,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
@@ -1520,11 +1525,11 @@
       <c r="I29" s="2">
         <v>18</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="9">
         <f t="shared" si="4"/>
         <v>0.19148936170212766</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="10">
         <f t="shared" si="5"/>
         <v>4709.8723404255315</v>
       </c>
@@ -1535,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -1553,11 +1558,11 @@
       <c r="I30" s="2">
         <v>34</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="9">
         <f t="shared" si="4"/>
         <v>0.36170212765957449</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="10">
         <f t="shared" si="5"/>
         <v>12150.297872340427</v>
       </c>
@@ -1571,22 +1576,22 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f>SUM(I26:I30)</f>
         <v>94</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="12">
         <f>SUM(K26:K30)</f>
         <v>36340.255319148942</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1607,7 +1612,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
@@ -1625,11 +1630,11 @@
       <c r="I33" s="2">
         <v>8</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="9">
         <f>I33/$I$35</f>
         <v>0.5</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="10">
         <f>J33*H33</f>
         <v>15470</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
@@ -1658,11 +1663,11 @@
       <c r="I34" s="2">
         <v>8</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="9">
         <f t="shared" ref="J34:J35" si="6">I34/$I$35</f>
         <v>0.5</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="10">
         <f>J34*H34</f>
         <v>12688</v>
       </c>
@@ -1676,15 +1681,15 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="16">
+      <c r="I35" s="13">
         <f>SUM(I33:I34)</f>
         <v>16</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="11">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="12">
         <f>SUM(K33:K34)</f>
         <v>28158</v>
       </c>
@@ -1698,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60CF910-4972-8B45-A7B4-53AEE77A580C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
@@ -1713,231 +1718,231 @@
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="10">
         <v>39675.315789473687</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <v>88</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <f>D2/$D$10</f>
         <v>8.943089430894309E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f>E2*C2</f>
         <v>3548.1989730423625</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <v>41288</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E10" si="0">D3/$D$10</f>
         <v>3.0487804878048782E-3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F9" si="1">E3*C3</f>
         <v>125.87804878048782</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="10">
         <v>56732</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="2">
         <v>23</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>2.3373983739837397E-2</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f t="shared" si="1"/>
         <v>1326.0528455284552</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <v>45741.364161849713</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>124</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0.12601626016260162</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
         <v>5764.1556464119558</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="10">
         <v>55068</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>268</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0.27235772357723576</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
         <v>14998.195121951219</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="10">
         <v>49244</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>1.0162601626016261E-3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>50.044715447154474</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <v>36340.255319148942</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>286</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0.29065040650406504</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>10562.309980972152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="10">
         <v>28158</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="2">
         <v>191</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0.19410569105691056</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>5465.628048780487</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <f>SUM(D2:D9)</f>
         <v>984</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <f>SUM(F2:F9)</f>
         <v>41840.463380914269</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40" x14ac:dyDescent="0.3">
-      <c r="C11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="14">
         <v>0.2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <f>F10*E11</f>
         <v>8368.0926761828541</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="19"/>
-      <c r="F12" s="15">
+      <c r="E12" s="15"/>
+      <c r="F12" s="12">
         <f>SUM(F10:F11)</f>
         <v>50208.556057097121</v>
       </c>
